--- a/data/pca/factorExposure/factorExposure_2017-07-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02395814113550224</v>
+        <v>-0.009111120405787399</v>
       </c>
       <c r="C2">
-        <v>-5.974890666168326e-05</v>
+        <v>0.04324044946792138</v>
       </c>
       <c r="D2">
-        <v>-0.02183007180857548</v>
+        <v>-0.02983044569545346</v>
       </c>
       <c r="E2">
-        <v>-0.01545036720189073</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03387019425323869</v>
+      </c>
+      <c r="F2">
+        <v>0.01098217859195844</v>
+      </c>
+      <c r="G2">
+        <v>-0.07343243401967617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01586603510449888</v>
+        <v>-0.05681113753111307</v>
       </c>
       <c r="C3">
-        <v>0.05083613464232525</v>
+        <v>0.07022578122320718</v>
       </c>
       <c r="D3">
-        <v>-0.007970560752510883</v>
+        <v>-0.01486773079718726</v>
       </c>
       <c r="E3">
-        <v>-0.009525355801084483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09878509930408026</v>
+      </c>
+      <c r="F3">
+        <v>0.03107793349011065</v>
+      </c>
+      <c r="G3">
+        <v>-0.1497781578370369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02341771616773261</v>
+        <v>-0.05973828453958049</v>
       </c>
       <c r="C4">
-        <v>0.01763917539217903</v>
+        <v>0.0638380926019842</v>
       </c>
       <c r="D4">
-        <v>-0.06465683952788701</v>
+        <v>-0.02360981473836999</v>
       </c>
       <c r="E4">
-        <v>0.01145324206105433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02282465875485499</v>
+      </c>
+      <c r="F4">
+        <v>0.007110678145146356</v>
+      </c>
+      <c r="G4">
+        <v>-0.07499983777069522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01543130878585507</v>
+        <v>-0.03984411121624112</v>
       </c>
       <c r="C6">
-        <v>0.01051272040977629</v>
+        <v>0.05285299740320119</v>
       </c>
       <c r="D6">
-        <v>-0.09188328559003771</v>
+        <v>-0.01622730500924571</v>
       </c>
       <c r="E6">
-        <v>0.004528377159553878</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02346339118771779</v>
+      </c>
+      <c r="F6">
+        <v>0.01138610340404625</v>
+      </c>
+      <c r="G6">
+        <v>-0.05278451532120202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01113629605389044</v>
+        <v>-0.0204689828693744</v>
       </c>
       <c r="C7">
-        <v>0.008362452260151787</v>
+        <v>0.04011826010363322</v>
       </c>
       <c r="D7">
-        <v>-0.03736216493195034</v>
+        <v>-0.01303092726734996</v>
       </c>
       <c r="E7">
-        <v>0.05890459935757797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.006499968514792138</v>
+      </c>
+      <c r="F7">
+        <v>-0.004726156386547999</v>
+      </c>
+      <c r="G7">
+        <v>-0.1140427435298006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0006134422858162587</v>
+        <v>-0.001621641724555292</v>
       </c>
       <c r="C8">
-        <v>0.001798940624421008</v>
+        <v>0.02137183048788376</v>
       </c>
       <c r="D8">
-        <v>-0.005705451184051326</v>
+        <v>-0.003687175344975506</v>
       </c>
       <c r="E8">
-        <v>0.005994084013970181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0229315358679461</v>
+      </c>
+      <c r="F8">
+        <v>0.01612952730655237</v>
+      </c>
+      <c r="G8">
+        <v>-0.04551823585895727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0163148941249412</v>
+        <v>-0.03536170055590308</v>
       </c>
       <c r="C9">
-        <v>0.01948601272947385</v>
+        <v>0.04487699655878236</v>
       </c>
       <c r="D9">
-        <v>-0.04885170107803239</v>
+        <v>-0.01604464101102306</v>
       </c>
       <c r="E9">
-        <v>0.001680180453096853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01531233454607095</v>
+      </c>
+      <c r="F9">
+        <v>0.01233678664309134</v>
+      </c>
+      <c r="G9">
+        <v>-0.07791974314385211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02060879794173234</v>
+        <v>-0.09191789453529996</v>
       </c>
       <c r="C10">
-        <v>0.1641615719554123</v>
+        <v>-0.187277089576443</v>
       </c>
       <c r="D10">
-        <v>0.1087583268148008</v>
+        <v>0.01698195880653088</v>
       </c>
       <c r="E10">
-        <v>-0.006037048379031674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01195298585040427</v>
+      </c>
+      <c r="F10">
+        <v>-0.02095160505513568</v>
+      </c>
+      <c r="G10">
+        <v>-0.05102068285157418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0008365179346987555</v>
+        <v>-0.03515443336570627</v>
       </c>
       <c r="C11">
-        <v>0.006899341503854003</v>
+        <v>0.05313201512627297</v>
       </c>
       <c r="D11">
-        <v>-0.04055125056307922</v>
+        <v>-0.002391684655955282</v>
       </c>
       <c r="E11">
-        <v>-0.006969100196136765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.008936364531593285</v>
+      </c>
+      <c r="F11">
+        <v>0.02101501757533966</v>
+      </c>
+      <c r="G11">
+        <v>-0.06094128884931259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006533068398842737</v>
+        <v>-0.03699419344710744</v>
       </c>
       <c r="C12">
-        <v>0.01312708492220998</v>
+        <v>0.04804153351056886</v>
       </c>
       <c r="D12">
-        <v>-0.04540327653067388</v>
+        <v>-0.006160237963983593</v>
       </c>
       <c r="E12">
-        <v>0.004243286244840862</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0007192750630574328</v>
+      </c>
+      <c r="F12">
+        <v>0.001272330108821955</v>
+      </c>
+      <c r="G12">
+        <v>-0.05666621407065214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02295165528725831</v>
+        <v>-0.01790351245662768</v>
       </c>
       <c r="C13">
-        <v>0.01544178828017032</v>
+        <v>0.03577372203491363</v>
       </c>
       <c r="D13">
-        <v>-0.01027837147338606</v>
+        <v>-0.02567692849402144</v>
       </c>
       <c r="E13">
-        <v>-0.01243837792725938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02745741949008783</v>
+      </c>
+      <c r="F13">
+        <v>0.006754210334470268</v>
+      </c>
+      <c r="G13">
+        <v>-0.09057147835763733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00793044889219153</v>
+        <v>-0.009345286052930149</v>
       </c>
       <c r="C14">
-        <v>0.01391475891606803</v>
+        <v>0.02602711369835837</v>
       </c>
       <c r="D14">
-        <v>-0.01218346799350894</v>
+        <v>-0.008886139185912202</v>
       </c>
       <c r="E14">
-        <v>0.008912320710128591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002404195057016849</v>
+      </c>
+      <c r="F14">
+        <v>-0.005457356112004983</v>
+      </c>
+      <c r="G14">
+        <v>-0.07878516473949013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001712343385910123</v>
+        <v>-0.03442654673589806</v>
       </c>
       <c r="C16">
-        <v>0.01279139814410074</v>
+        <v>0.04752832870209451</v>
       </c>
       <c r="D16">
-        <v>-0.04833912100860321</v>
+        <v>-0.001883522140084975</v>
       </c>
       <c r="E16">
-        <v>0.0028774262748309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007112812462047319</v>
+      </c>
+      <c r="F16">
+        <v>0.002246222580099966</v>
+      </c>
+      <c r="G16">
+        <v>-0.06431332854693199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01479408001703175</v>
+        <v>-0.02581309264081023</v>
       </c>
       <c r="C19">
-        <v>0.02507787579723797</v>
+        <v>0.04867686633856368</v>
       </c>
       <c r="D19">
-        <v>-0.01852268462864177</v>
+        <v>-0.01724048430146584</v>
       </c>
       <c r="E19">
-        <v>0.003963266724729007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06176704962272557</v>
+      </c>
+      <c r="F19">
+        <v>0.01906500614637032</v>
+      </c>
+      <c r="G19">
+        <v>-0.1048887449586115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01092507750796803</v>
+        <v>-0.01630260439549317</v>
       </c>
       <c r="C20">
-        <v>0.008300654742306814</v>
+        <v>0.03387514237150609</v>
       </c>
       <c r="D20">
-        <v>-0.01092045049299214</v>
+        <v>-0.01323765829662409</v>
       </c>
       <c r="E20">
-        <v>-0.01058679232121745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02578844378309801</v>
+      </c>
+      <c r="F20">
+        <v>-0.005335688486385132</v>
+      </c>
+      <c r="G20">
+        <v>-0.07607041018929736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01514290502258471</v>
+        <v>-0.0157318743280191</v>
       </c>
       <c r="C21">
-        <v>0.0218253837938586</v>
+        <v>0.03692917442930771</v>
       </c>
       <c r="D21">
-        <v>-0.02367276024580386</v>
+        <v>-0.01739857322985941</v>
       </c>
       <c r="E21">
-        <v>0.009044340880277627</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03784473786585996</v>
+      </c>
+      <c r="F21">
+        <v>-0.0002992833109512965</v>
+      </c>
+      <c r="G21">
+        <v>-0.1102895029691777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004641818503301379</v>
+        <v>-0.02804981449292559</v>
       </c>
       <c r="C24">
-        <v>0.001071525573026365</v>
+        <v>0.05027454350155848</v>
       </c>
       <c r="D24">
-        <v>-0.04301014045017663</v>
+        <v>-0.007331846856290309</v>
       </c>
       <c r="E24">
-        <v>-0.001279910671487338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.004862638871794924</v>
+      </c>
+      <c r="F24">
+        <v>0.01413152534013801</v>
+      </c>
+      <c r="G24">
+        <v>-0.06538039038854764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01228978182728267</v>
+        <v>-0.04330536013261883</v>
       </c>
       <c r="C25">
-        <v>0.0173674478635374</v>
+        <v>0.05703584810888141</v>
       </c>
       <c r="D25">
-        <v>-0.04559390213232353</v>
+        <v>-0.01129253174111254</v>
       </c>
       <c r="E25">
-        <v>-0.001367517029695801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.002442287257736837</v>
+      </c>
+      <c r="F25">
+        <v>0.009463148253252092</v>
+      </c>
+      <c r="G25">
+        <v>-0.06987576016543671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02339439542586006</v>
+        <v>-0.0159916559443977</v>
       </c>
       <c r="C26">
-        <v>0.01125689509268149</v>
+        <v>0.007798999131930322</v>
       </c>
       <c r="D26">
-        <v>0.004215255212121147</v>
+        <v>-0.02325672796363481</v>
       </c>
       <c r="E26">
-        <v>0.008087516893429084</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.002413298148945491</v>
+      </c>
+      <c r="F26">
+        <v>-0.007425416959957879</v>
+      </c>
+      <c r="G26">
+        <v>-0.06420761982990064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04326986118367435</v>
+        <v>-0.1158861050359831</v>
       </c>
       <c r="C28">
-        <v>0.2345668029404081</v>
+        <v>-0.23779942439452</v>
       </c>
       <c r="D28">
-        <v>0.1618607967161715</v>
+        <v>0.007646095640425206</v>
       </c>
       <c r="E28">
-        <v>0.01605849312049</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0002310655208660957</v>
+      </c>
+      <c r="F28">
+        <v>-0.01954109857595425</v>
+      </c>
+      <c r="G28">
+        <v>-0.06810551562197877</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008156054479098332</v>
+        <v>-0.01138180721794671</v>
       </c>
       <c r="C29">
-        <v>0.01710619034468039</v>
+        <v>0.02054216631721936</v>
       </c>
       <c r="D29">
-        <v>-0.0108860815294372</v>
+        <v>-0.00769762862167672</v>
       </c>
       <c r="E29">
-        <v>0.004637997365297629</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.004657149297539972</v>
+      </c>
+      <c r="F29">
+        <v>-0.01537000319926558</v>
+      </c>
+      <c r="G29">
+        <v>-0.07004615002182471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02411138531335475</v>
+        <v>-0.0466832149092372</v>
       </c>
       <c r="C30">
-        <v>0.004447066486044665</v>
+        <v>0.06392629313855387</v>
       </c>
       <c r="D30">
-        <v>-0.06079782537166985</v>
+        <v>-0.02819296005911671</v>
       </c>
       <c r="E30">
-        <v>-0.05097326549371522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04893449211303458</v>
+      </c>
+      <c r="F30">
+        <v>0.04701804209408683</v>
+      </c>
+      <c r="G30">
+        <v>-0.07535737487421226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01004314854701509</v>
+        <v>-0.05420657362887286</v>
       </c>
       <c r="C31">
-        <v>0.04301659518798107</v>
+        <v>0.0337151969113275</v>
       </c>
       <c r="D31">
-        <v>-0.04452872438127464</v>
+        <v>-0.003036550263229897</v>
       </c>
       <c r="E31">
-        <v>0.008510324297009446</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.006509198502079388</v>
+      </c>
+      <c r="F31">
+        <v>-0.03965976930015284</v>
+      </c>
+      <c r="G31">
+        <v>-0.06586532488634707</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005658467481950574</v>
+        <v>0.0001274982237972987</v>
       </c>
       <c r="C32">
-        <v>0.02026393466964899</v>
+        <v>0.02656151380802911</v>
       </c>
       <c r="D32">
-        <v>0.006951953685933921</v>
+        <v>0.003991305661764228</v>
       </c>
       <c r="E32">
-        <v>0.04967229229464575</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01575463544051445</v>
+      </c>
+      <c r="F32">
+        <v>0.04159382140269999</v>
+      </c>
+      <c r="G32">
+        <v>-0.0923475850227141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01413786497434595</v>
+        <v>-0.02897755683348563</v>
       </c>
       <c r="C33">
-        <v>0.02600835077731678</v>
+        <v>0.04714001617777719</v>
       </c>
       <c r="D33">
-        <v>-0.02005076753334773</v>
+        <v>-0.01495686118171499</v>
       </c>
       <c r="E33">
-        <v>-0.02948236287988321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03243563294276636</v>
+      </c>
+      <c r="F33">
+        <v>0.01663145620125473</v>
+      </c>
+      <c r="G33">
+        <v>-0.1027420925133141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003707178891155532</v>
+        <v>-0.04062321520445814</v>
       </c>
       <c r="C34">
-        <v>0.01894345126618274</v>
+        <v>0.06161101411372732</v>
       </c>
       <c r="D34">
-        <v>-0.0500600226317582</v>
+        <v>0.004336505310257824</v>
       </c>
       <c r="E34">
-        <v>0.007130535979134294</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.001360083839975943</v>
+      </c>
+      <c r="F34">
+        <v>0.0212804525920206</v>
+      </c>
+      <c r="G34">
+        <v>-0.07185404560854358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01335179223151309</v>
+        <v>-0.01580398923293415</v>
       </c>
       <c r="C36">
-        <v>0.02188481334111643</v>
+        <v>0.008894522347884631</v>
       </c>
       <c r="D36">
-        <v>-0.002257019559773334</v>
+        <v>-0.01151503111957106</v>
       </c>
       <c r="E36">
-        <v>0.002944553543093407</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0007780811074408003</v>
+      </c>
+      <c r="F36">
+        <v>-0.008630006604426969</v>
+      </c>
+      <c r="G36">
+        <v>-0.0582380103261648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003075770218648894</v>
+        <v>-0.03324733632806109</v>
       </c>
       <c r="C38">
-        <v>0.03668404232384146</v>
+        <v>0.02851902551853216</v>
       </c>
       <c r="D38">
-        <v>-0.03320263825408917</v>
+        <v>0.007845484711274494</v>
       </c>
       <c r="E38">
-        <v>0.004255690898739827</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001985448819920893</v>
+      </c>
+      <c r="F38">
+        <v>-0.0154138505949055</v>
+      </c>
+      <c r="G38">
+        <v>-0.06604001059307246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004817021206566772</v>
+        <v>-0.03546584027219245</v>
       </c>
       <c r="C39">
-        <v>-0.01864529517876335</v>
+        <v>0.08183990493212596</v>
       </c>
       <c r="D39">
-        <v>-0.08918434457724854</v>
+        <v>-0.01214949509023609</v>
       </c>
       <c r="E39">
-        <v>-0.0163044136636921</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02431245806028392</v>
+      </c>
+      <c r="F39">
+        <v>0.026870983471038</v>
+      </c>
+      <c r="G39">
+        <v>-0.06721342482179461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01301354401520304</v>
+        <v>-0.01932921171197033</v>
       </c>
       <c r="C40">
-        <v>0.02308432932922441</v>
+        <v>0.03241082241422013</v>
       </c>
       <c r="D40">
-        <v>-0.02577826529731891</v>
+        <v>-0.01384386297425372</v>
       </c>
       <c r="E40">
-        <v>0.0008453198605039198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0228553397294443</v>
+      </c>
+      <c r="F40">
+        <v>0.01206422467930683</v>
+      </c>
+      <c r="G40">
+        <v>-0.0712375993024336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0063937540192235</v>
+        <v>-0.0174364636316597</v>
       </c>
       <c r="C41">
-        <v>0.02174605551252419</v>
+        <v>0.001025676273710245</v>
       </c>
       <c r="D41">
-        <v>0.008336442401295815</v>
+        <v>-0.003675202073234375</v>
       </c>
       <c r="E41">
-        <v>0.002982982897931745</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0009971241976139528</v>
+      </c>
+      <c r="F41">
+        <v>-0.01292943598114383</v>
+      </c>
+      <c r="G41">
+        <v>-0.04657117779395809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09472591065310026</v>
+        <v>-0.01231950698167777</v>
       </c>
       <c r="C42">
-        <v>-0.009425265134642291</v>
+        <v>0.03701662974458338</v>
       </c>
       <c r="D42">
-        <v>-0.2484935059948039</v>
+        <v>-0.09420507470437497</v>
       </c>
       <c r="E42">
-        <v>-0.4252234892465255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03062851498452699</v>
+      </c>
+      <c r="F42">
+        <v>-0.03641495514982827</v>
+      </c>
+      <c r="G42">
+        <v>0.1754159691623094</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007733822581974074</v>
+        <v>-0.03286902113063677</v>
       </c>
       <c r="C43">
-        <v>0.02564714958783779</v>
+        <v>0.01340845626699668</v>
       </c>
       <c r="D43">
-        <v>0.0154114977650624</v>
+        <v>-0.005243263979066512</v>
       </c>
       <c r="E43">
-        <v>-0.001838437862568311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01189830980100647</v>
+      </c>
+      <c r="F43">
+        <v>-0.004846724288855907</v>
+      </c>
+      <c r="G43">
+        <v>-0.06946621397567322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003393349509850978</v>
+        <v>-0.01782305440254183</v>
       </c>
       <c r="C44">
-        <v>0.007743721724452202</v>
+        <v>0.04847822652723806</v>
       </c>
       <c r="D44">
-        <v>-0.02639388442265621</v>
+        <v>-0.005970541831313658</v>
       </c>
       <c r="E44">
-        <v>0.005079721551911863</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01717216245348348</v>
+      </c>
+      <c r="F44">
+        <v>-0.004848822893271876</v>
+      </c>
+      <c r="G44">
+        <v>-0.08417515226212714</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01129574202561382</v>
+        <v>-0.00851535377573121</v>
       </c>
       <c r="C46">
-        <v>0.01569898879729177</v>
+        <v>0.01640327260574133</v>
       </c>
       <c r="D46">
-        <v>-0.01222660936049666</v>
+        <v>-0.01158391639273854</v>
       </c>
       <c r="E46">
-        <v>-0.002338560888218568</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.003671718602001874</v>
+      </c>
+      <c r="F46">
+        <v>-0.01787593722362922</v>
+      </c>
+      <c r="G46">
+        <v>-0.06913062467277654</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.00467652941099283</v>
+        <v>-0.0790288821431166</v>
       </c>
       <c r="C47">
-        <v>0.05419376510697163</v>
+        <v>0.06210108495499438</v>
       </c>
       <c r="D47">
-        <v>-0.06113757135381762</v>
+        <v>0.005348930012469687</v>
       </c>
       <c r="E47">
-        <v>0.004622441253598373</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.00955385376516728</v>
+      </c>
+      <c r="F47">
+        <v>-0.05508243660626257</v>
+      </c>
+      <c r="G47">
+        <v>-0.06397059934246824</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004311251519263039</v>
+        <v>-0.02194301156799211</v>
       </c>
       <c r="C48">
-        <v>0.0269770990552433</v>
+        <v>0.01022049068527461</v>
       </c>
       <c r="D48">
-        <v>-0.01224377398461525</v>
+        <v>-0.0007564461418170695</v>
       </c>
       <c r="E48">
-        <v>0.001853018938513728</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.003323901972706596</v>
+      </c>
+      <c r="F48">
+        <v>-0.02176983441423107</v>
+      </c>
+      <c r="G48">
+        <v>-0.06555089187299457</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006704116772632554</v>
+        <v>-0.07892053180981912</v>
       </c>
       <c r="C50">
-        <v>0.05580700278160631</v>
+        <v>0.06532488468604304</v>
       </c>
       <c r="D50">
-        <v>-0.0653229709449592</v>
+        <v>0.003404348096220984</v>
       </c>
       <c r="E50">
-        <v>0.03003291984564706</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.0123335722211234</v>
+      </c>
+      <c r="F50">
+        <v>-0.05947770617002861</v>
+      </c>
+      <c r="G50">
+        <v>-0.08133005507905593</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007527043148252137</v>
+        <v>-0.01538791159514969</v>
       </c>
       <c r="C51">
-        <v>0.01669604777093137</v>
+        <v>0.03120088435178861</v>
       </c>
       <c r="D51">
-        <v>0.002646056220963276</v>
+        <v>-0.009674094688071811</v>
       </c>
       <c r="E51">
-        <v>0.004348728140324449</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01460891645054974</v>
+      </c>
+      <c r="F51">
+        <v>0.02337351915366803</v>
+      </c>
+      <c r="G51">
+        <v>-0.0996471964384272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.008121235038772046</v>
+        <v>-0.08568391019769488</v>
       </c>
       <c r="C53">
-        <v>0.06687344013928109</v>
+        <v>0.07895523482070306</v>
       </c>
       <c r="D53">
-        <v>-0.1194697387247532</v>
+        <v>0.004713945363499684</v>
       </c>
       <c r="E53">
-        <v>0.008599710406347693</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03216155423274993</v>
+      </c>
+      <c r="F53">
+        <v>-0.06108273901082598</v>
+      </c>
+      <c r="G53">
+        <v>-0.05120297528580908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001295536015743274</v>
+        <v>-0.03276930385662276</v>
       </c>
       <c r="C54">
-        <v>0.03480135399745989</v>
+        <v>0.01395395910568814</v>
       </c>
       <c r="D54">
-        <v>0.006312602319735936</v>
+        <v>0.002556847853578971</v>
       </c>
       <c r="E54">
-        <v>0.007218023613611499</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.003607400951092951</v>
+      </c>
+      <c r="F54">
+        <v>-0.007244584302884224</v>
+      </c>
+      <c r="G54">
+        <v>-0.071851553888829</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.004089411423267682</v>
+        <v>-0.07433479175068303</v>
       </c>
       <c r="C55">
-        <v>0.04585297048635253</v>
+        <v>0.06682840776021252</v>
       </c>
       <c r="D55">
-        <v>-0.1014673007913907</v>
+        <v>0.00566884886758905</v>
       </c>
       <c r="E55">
-        <v>-0.00330555848711024</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02596739284880716</v>
+      </c>
+      <c r="F55">
+        <v>-0.06008718915306241</v>
+      </c>
+      <c r="G55">
+        <v>-0.03422581498376037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.007355740718804605</v>
+        <v>-0.1442989081680979</v>
       </c>
       <c r="C56">
-        <v>0.0937622318228057</v>
+        <v>0.1040800230018118</v>
       </c>
       <c r="D56">
-        <v>-0.1564712631412573</v>
+        <v>0.01314775149588617</v>
       </c>
       <c r="E56">
-        <v>-0.004531302719735144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03644603382434576</v>
+      </c>
+      <c r="F56">
+        <v>-0.07959224706265029</v>
+      </c>
+      <c r="G56">
+        <v>-0.009893275053237078</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02471948847587607</v>
+        <v>-0.00799838105091219</v>
       </c>
       <c r="C57">
-        <v>0.01720059429019962</v>
+        <v>0.008849154142938175</v>
       </c>
       <c r="D57">
-        <v>-0.04351277230534781</v>
+        <v>-0.02347935208429531</v>
       </c>
       <c r="E57">
-        <v>-0.007557359594689644</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02433313832345615</v>
+      </c>
+      <c r="F57">
+        <v>0.009424487030485826</v>
+      </c>
+      <c r="G57">
+        <v>-0.02727647386209914</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01693362878151998</v>
+        <v>-0.07432195859116721</v>
       </c>
       <c r="C58">
-        <v>0.08759179832780746</v>
+        <v>0.03496888870676807</v>
       </c>
       <c r="D58">
-        <v>-0.09681352179034637</v>
+        <v>-0.02241627862181304</v>
       </c>
       <c r="E58">
-        <v>-0.3987094608359892</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9373296094055297</v>
+      </c>
+      <c r="F58">
+        <v>-0.2412069269333049</v>
+      </c>
+      <c r="G58">
+        <v>0.08534190675172103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04082098729986615</v>
+        <v>-0.1547738820693355</v>
       </c>
       <c r="C59">
-        <v>0.2524727657379275</v>
+        <v>-0.2116553685355034</v>
       </c>
       <c r="D59">
-        <v>0.1587198261137059</v>
+        <v>0.0137016039711962</v>
       </c>
       <c r="E59">
-        <v>0.009755206284305196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.00987648885163425</v>
+      </c>
+      <c r="F59">
+        <v>0.003162131573130192</v>
+      </c>
+      <c r="G59">
+        <v>-0.03635487820779409</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04199614117663901</v>
+        <v>-0.2886897375090147</v>
       </c>
       <c r="C60">
-        <v>0.1636252163643623</v>
+        <v>0.09241564287709889</v>
       </c>
       <c r="D60">
-        <v>-0.07644934119437279</v>
+        <v>-0.01311746864733046</v>
       </c>
       <c r="E60">
-        <v>-0.01045303647090019</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.000943765343384597</v>
+      </c>
+      <c r="F60">
+        <v>0.353047864223461</v>
+      </c>
+      <c r="G60">
+        <v>0.1288722052684408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003274204238551658</v>
+        <v>-0.03726550236009392</v>
       </c>
       <c r="C61">
-        <v>0.007398431075812459</v>
+        <v>0.0646089730814642</v>
       </c>
       <c r="D61">
-        <v>-0.06376749778032943</v>
+        <v>-0.00538576416718923</v>
       </c>
       <c r="E61">
-        <v>-0.002100499828140213</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01193174590762616</v>
+      </c>
+      <c r="F61">
+        <v>0.01506373541957043</v>
+      </c>
+      <c r="G61">
+        <v>-0.06027876863847496</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007753553483866746</v>
+        <v>-0.01484693803375173</v>
       </c>
       <c r="C63">
-        <v>0.008080509026671691</v>
+        <v>0.02860640003486003</v>
       </c>
       <c r="D63">
-        <v>-0.00985453687864464</v>
+        <v>-0.007996784005321594</v>
       </c>
       <c r="E63">
-        <v>0.009055143951364936</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.002880258229161991</v>
+      </c>
+      <c r="F63">
+        <v>-0.0177858615893362</v>
+      </c>
+      <c r="G63">
+        <v>-0.06876185666819018</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009077491445041691</v>
+        <v>-0.05035378453873329</v>
       </c>
       <c r="C64">
-        <v>0.03041056654915144</v>
+        <v>0.04375039386480073</v>
       </c>
       <c r="D64">
-        <v>-0.0599385118572265</v>
+        <v>-0.005781277817917881</v>
       </c>
       <c r="E64">
-        <v>-0.01785881672522212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.00419704677744709</v>
+      </c>
+      <c r="F64">
+        <v>0.002920483706377144</v>
+      </c>
+      <c r="G64">
+        <v>-0.05173093653310469</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01747329962061145</v>
+        <v>-0.08126015794034121</v>
       </c>
       <c r="C65">
-        <v>0.01009546983613032</v>
+        <v>0.05681101394336458</v>
       </c>
       <c r="D65">
-        <v>-0.1111736588478528</v>
+        <v>-0.01569539914107711</v>
       </c>
       <c r="E65">
-        <v>0.008738055384517321</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02412493334520824</v>
+      </c>
+      <c r="F65">
+        <v>0.02964882653716593</v>
+      </c>
+      <c r="G65">
+        <v>-0.02257174175012198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004518272826055283</v>
+        <v>-0.05285492927856981</v>
       </c>
       <c r="C66">
-        <v>-0.01409809774308874</v>
+        <v>0.1112197789734687</v>
       </c>
       <c r="D66">
-        <v>-0.1139629295043692</v>
+        <v>-0.01204149974892334</v>
       </c>
       <c r="E66">
-        <v>-0.01340417652992953</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02949208166282742</v>
+      </c>
+      <c r="F66">
+        <v>0.0350639926720204</v>
+      </c>
+      <c r="G66">
+        <v>-0.07303025950764636</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003646986150237749</v>
+        <v>-0.05516997821615822</v>
       </c>
       <c r="C67">
-        <v>0.05792431807476228</v>
+        <v>0.03152426563604548</v>
       </c>
       <c r="D67">
-        <v>-0.03808513993445147</v>
+        <v>0.005840429042502575</v>
       </c>
       <c r="E67">
-        <v>0.005568925173138408</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003846419433830718</v>
+      </c>
+      <c r="F67">
+        <v>-0.01531309405383301</v>
+      </c>
+      <c r="G67">
+        <v>-0.06181917774636286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05747427948188658</v>
+        <v>-0.1403313440405164</v>
       </c>
       <c r="C68">
-        <v>0.2297054289249953</v>
+        <v>-0.2731433542584488</v>
       </c>
       <c r="D68">
-        <v>0.1566894296376732</v>
+        <v>-0.004008804319031084</v>
       </c>
       <c r="E68">
-        <v>-0.01028708600812333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.00664353331528866</v>
+      </c>
+      <c r="F68">
+        <v>-0.03142300687041154</v>
+      </c>
+      <c r="G68">
+        <v>-0.02130714459740842</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0006551643852422918</v>
+        <v>-0.08170203078860395</v>
       </c>
       <c r="C69">
-        <v>0.04283946013052049</v>
+        <v>0.06623202885412378</v>
       </c>
       <c r="D69">
-        <v>-0.06363157414115343</v>
+        <v>0.009310965486303722</v>
       </c>
       <c r="E69">
-        <v>0.007778785457524091</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02644725374152143</v>
+      </c>
+      <c r="F69">
+        <v>-0.03947039835687081</v>
+      </c>
+      <c r="G69">
+        <v>-0.06669793730302581</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.0432700003445466</v>
+        <v>-0.1300396239198593</v>
       </c>
       <c r="C71">
-        <v>0.2039146096882752</v>
+        <v>-0.2353992303612312</v>
       </c>
       <c r="D71">
-        <v>0.1400931717387736</v>
+        <v>0.004678326824069131</v>
       </c>
       <c r="E71">
-        <v>-0.002853537620447604</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02550533186033008</v>
+      </c>
+      <c r="F71">
+        <v>-0.01341210190691743</v>
+      </c>
+      <c r="G71">
+        <v>-0.04589343181926821</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0004485894352018705</v>
+        <v>-0.08684064121310694</v>
       </c>
       <c r="C72">
-        <v>0.04705564128077436</v>
+        <v>0.07051202657023778</v>
       </c>
       <c r="D72">
-        <v>-0.1324190208362075</v>
+        <v>0.007907244159009246</v>
       </c>
       <c r="E72">
-        <v>-0.001014923322164956</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.00263270318234987</v>
+      </c>
+      <c r="F72">
+        <v>0.0431565096407852</v>
+      </c>
+      <c r="G72">
+        <v>-0.05042429369793112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.0557689144467463</v>
+        <v>-0.385191564690795</v>
       </c>
       <c r="C73">
-        <v>0.1897329802763644</v>
+        <v>0.1066449687497514</v>
       </c>
       <c r="D73">
-        <v>-0.1596293996341084</v>
+        <v>-0.02273200022779893</v>
       </c>
       <c r="E73">
-        <v>-0.05481438221587188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07147330995645673</v>
+      </c>
+      <c r="F73">
+        <v>0.5689445252970456</v>
+      </c>
+      <c r="G73">
+        <v>0.1987358374508446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.004025884876992274</v>
+        <v>-0.1127038255814401</v>
       </c>
       <c r="C74">
-        <v>0.08030383066788647</v>
+        <v>0.1093679172997802</v>
       </c>
       <c r="D74">
-        <v>-0.1554993923037583</v>
+        <v>0.01017271637344479</v>
       </c>
       <c r="E74">
-        <v>-0.01217917834959263</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01549293031981307</v>
+      </c>
+      <c r="F74">
+        <v>-0.07435581522919943</v>
+      </c>
+      <c r="G74">
+        <v>-0.05568046168134112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01424913963604338</v>
+        <v>-0.2507530162738981</v>
       </c>
       <c r="C75">
-        <v>0.1888273698965537</v>
+        <v>0.1466131754423363</v>
       </c>
       <c r="D75">
-        <v>-0.2901309907960305</v>
+        <v>0.03013212078521448</v>
       </c>
       <c r="E75">
-        <v>-0.02229519397156751</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05807529312025721</v>
+      </c>
+      <c r="F75">
+        <v>-0.1811456699725398</v>
+      </c>
+      <c r="G75">
+        <v>0.05883749434469358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001667761093825776</v>
+        <v>-0.1271900645224017</v>
       </c>
       <c r="C76">
-        <v>0.1208536062125803</v>
+        <v>0.1120612198535235</v>
       </c>
       <c r="D76">
-        <v>-0.2298425580453603</v>
+        <v>0.02061480058597881</v>
       </c>
       <c r="E76">
-        <v>0.0250621012469744</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0467148022115185</v>
+      </c>
+      <c r="F76">
+        <v>-0.1180913252506563</v>
+      </c>
+      <c r="G76">
+        <v>-0.02823715490525879</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01294076653105638</v>
+        <v>-0.06750459590871981</v>
       </c>
       <c r="C77">
-        <v>0.01958205670052436</v>
+        <v>0.05602941385138435</v>
       </c>
       <c r="D77">
-        <v>-0.04442654967772716</v>
+        <v>-0.0123153280996928</v>
       </c>
       <c r="E77">
-        <v>-0.01919499253906778</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.051333873899706</v>
+      </c>
+      <c r="F77">
+        <v>0.0137620039088161</v>
+      </c>
+      <c r="G77">
+        <v>-0.06545080320804172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.005116037479499082</v>
+        <v>-0.04565710621631307</v>
       </c>
       <c r="C78">
-        <v>0.015452560109889</v>
+        <v>0.04887493193898429</v>
       </c>
       <c r="D78">
-        <v>-0.06152467642506147</v>
+        <v>-0.005330172265895011</v>
       </c>
       <c r="E78">
-        <v>-0.01059752337706941</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02156306684861809</v>
+      </c>
+      <c r="F78">
+        <v>0.03664580225840503</v>
+      </c>
+      <c r="G78">
+        <v>-0.06696196679770827</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01635081104482092</v>
+        <v>-0.05775545932867682</v>
       </c>
       <c r="C80">
-        <v>0.09159183329998487</v>
+        <v>0.06551197851437109</v>
       </c>
       <c r="D80">
-        <v>-0.2304358130332493</v>
+        <v>-0.01013526319793556</v>
       </c>
       <c r="E80">
-        <v>0.784069609107139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02791356914010798</v>
+      </c>
+      <c r="F80">
+        <v>0.008870973061839434</v>
+      </c>
+      <c r="G80">
+        <v>-0.6822054321079434</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.009070814517861804</v>
+        <v>-0.1427520403581662</v>
       </c>
       <c r="C81">
-        <v>0.1127213556069053</v>
+        <v>0.08905340175640838</v>
       </c>
       <c r="D81">
-        <v>-0.1643879881508191</v>
+        <v>0.01551085637278345</v>
       </c>
       <c r="E81">
-        <v>0.007135210912653981</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03555715195505322</v>
+      </c>
+      <c r="F81">
+        <v>-0.1283720642234998</v>
+      </c>
+      <c r="G81">
+        <v>-0.01705951057846214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1220872982192231</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.06003333120892691</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.007002879429959298</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08432091488895344</v>
+      </c>
+      <c r="F82">
+        <v>-0.02295463861398883</v>
+      </c>
+      <c r="G82">
+        <v>-0.0310178324883496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007440599965747995</v>
+        <v>-0.03351393813844641</v>
       </c>
       <c r="C83">
-        <v>0.0221800901459051</v>
+        <v>0.02372096825407324</v>
       </c>
       <c r="D83">
-        <v>-0.01949758953101271</v>
+        <v>-0.005898778024539169</v>
       </c>
       <c r="E83">
-        <v>-0.002653926286043658</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.03063109488466022</v>
+      </c>
+      <c r="F83">
+        <v>0.03578581116631388</v>
+      </c>
+      <c r="G83">
+        <v>-0.04861165876988134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01956272359834428</v>
+        <v>-0.2175602939578564</v>
       </c>
       <c r="C85">
-        <v>0.1458187039177881</v>
+        <v>0.141672918030082</v>
       </c>
       <c r="D85">
-        <v>-0.2631968900463923</v>
+        <v>0.01768172136690568</v>
       </c>
       <c r="E85">
-        <v>-0.01547878858552316</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09794518560259255</v>
+      </c>
+      <c r="F85">
+        <v>-0.1428154164486094</v>
+      </c>
+      <c r="G85">
+        <v>0.1024034405225505</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01035785637624518</v>
+        <v>-0.01708278894299551</v>
       </c>
       <c r="C86">
-        <v>0.03589474700140843</v>
+        <v>0.02313428974492738</v>
       </c>
       <c r="D86">
-        <v>-0.01863091836097144</v>
+        <v>-0.01121622190666565</v>
       </c>
       <c r="E86">
-        <v>-0.04499733824986002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04405779265698121</v>
+      </c>
+      <c r="F86">
+        <v>0.0415200257971008</v>
+      </c>
+      <c r="G86">
+        <v>-0.1339907375289109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007828307192914436</v>
+        <v>-0.02314884723427798</v>
       </c>
       <c r="C87">
-        <v>0.01141763382859107</v>
+        <v>0.02738747069210272</v>
       </c>
       <c r="D87">
-        <v>-0.04375012990697028</v>
+        <v>-0.01144667310189141</v>
       </c>
       <c r="E87">
-        <v>-0.01396488398415719</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08578901269465827</v>
+      </c>
+      <c r="F87">
+        <v>0.02079055119657278</v>
+      </c>
+      <c r="G87">
+        <v>-0.09331447285275615</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02834591607842188</v>
+        <v>-0.09235002557264163</v>
       </c>
       <c r="C88">
-        <v>0.03504977312348827</v>
+        <v>0.06427747231424664</v>
       </c>
       <c r="D88">
-        <v>-0.03235614129629719</v>
+        <v>-0.02276458180717702</v>
       </c>
       <c r="E88">
-        <v>0.002841173789533928</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01112390497464028</v>
+      </c>
+      <c r="F88">
+        <v>-0.02292384383451484</v>
+      </c>
+      <c r="G88">
+        <v>-0.06454268285057524</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.08068643952098907</v>
+        <v>-0.2162292291635183</v>
       </c>
       <c r="C89">
-        <v>0.3698022897659793</v>
+        <v>-0.3763981195932943</v>
       </c>
       <c r="D89">
-        <v>0.2463678504340022</v>
+        <v>0.003371185806272437</v>
       </c>
       <c r="E89">
-        <v>0.02575479845977142</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02203833624723318</v>
+      </c>
+      <c r="F89">
+        <v>-0.02208426184284663</v>
+      </c>
+      <c r="G89">
+        <v>-0.04622425964957775</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06169382968564572</v>
+        <v>-0.1945360950094673</v>
       </c>
       <c r="C90">
-        <v>0.2870499069167975</v>
+        <v>-0.3290495230189409</v>
       </c>
       <c r="D90">
-        <v>0.2115575181785608</v>
+        <v>0.007754149173519851</v>
       </c>
       <c r="E90">
-        <v>-0.007200427785452361</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01683298333755047</v>
+      </c>
+      <c r="F90">
+        <v>-0.05043254868566047</v>
+      </c>
+      <c r="G90">
+        <v>-0.01403300730936808</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.009757832584186601</v>
+        <v>-0.1955513969841525</v>
       </c>
       <c r="C91">
-        <v>0.162214577688545</v>
+        <v>0.1378565669422706</v>
       </c>
       <c r="D91">
-        <v>-0.2377981729931551</v>
+        <v>0.02340914839644031</v>
       </c>
       <c r="E91">
-        <v>0.008163690948723332</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07071496776198727</v>
+      </c>
+      <c r="F91">
+        <v>-0.1540289428346873</v>
+      </c>
+      <c r="G91">
+        <v>-0.008315961032346475</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.02888796974868042</v>
+        <v>-0.1944506614715781</v>
       </c>
       <c r="C92">
-        <v>0.3032373041398079</v>
+        <v>-0.2650951817709558</v>
       </c>
       <c r="D92">
-        <v>0.1006869536900436</v>
+        <v>0.04269677200540294</v>
       </c>
       <c r="E92">
-        <v>-0.01009661392380231</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.01320314010907668</v>
+      </c>
+      <c r="F92">
+        <v>-0.06788189356140115</v>
+      </c>
+      <c r="G92">
+        <v>-0.1186824695566418</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06001840486516452</v>
+        <v>-0.2196290075895042</v>
       </c>
       <c r="C93">
-        <v>0.3132072227651447</v>
+        <v>-0.3289608756540645</v>
       </c>
       <c r="D93">
-        <v>0.2007948451000681</v>
+        <v>0.0140194714679913</v>
       </c>
       <c r="E93">
-        <v>-0.03215715916511349</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.003059490326271701</v>
+      </c>
+      <c r="F93">
+        <v>-0.03462499839477524</v>
+      </c>
+      <c r="G93">
+        <v>-0.01593985441816475</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03369820206183272</v>
+        <v>-0.3186874345265315</v>
       </c>
       <c r="C94">
-        <v>0.1899605645804497</v>
+        <v>0.1661874052864444</v>
       </c>
       <c r="D94">
-        <v>-0.239390059806952</v>
+        <v>0.01764841926726947</v>
       </c>
       <c r="E94">
-        <v>-0.01470192556715899</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1655436580431311</v>
+      </c>
+      <c r="F94">
+        <v>-0.4735636435132591</v>
+      </c>
+      <c r="G94">
+        <v>0.2762392397496888</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004241298666467065</v>
+        <v>-0.09946239731157228</v>
       </c>
       <c r="C95">
-        <v>0.03848881101069038</v>
+        <v>0.08259864204501299</v>
       </c>
       <c r="D95">
-        <v>-0.07858302272189702</v>
+        <v>0.008701351014398074</v>
       </c>
       <c r="E95">
-        <v>-0.1311155974037187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06199527360931886</v>
+      </c>
+      <c r="F95">
+        <v>0.1911643192647612</v>
+      </c>
+      <c r="G95">
+        <v>0.07941447724096329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.0164930013228298</v>
+        <v>-0.199942757409447</v>
       </c>
       <c r="C98">
-        <v>0.1697887362664479</v>
+        <v>0.04187159829112363</v>
       </c>
       <c r="D98">
-        <v>-0.1156243982599894</v>
+        <v>0.01230754712872704</v>
       </c>
       <c r="E98">
-        <v>-0.05742883519931245</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06647006045424869</v>
+      </c>
+      <c r="F98">
+        <v>0.242383392015939</v>
+      </c>
+      <c r="G98">
+        <v>0.02567474500689565</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00793815017615911</v>
+        <v>-0.01120145536570241</v>
       </c>
       <c r="C101">
-        <v>0.01679250630175392</v>
+        <v>0.02050261134133291</v>
       </c>
       <c r="D101">
-        <v>-0.01060857072995264</v>
+        <v>-0.007519300822214502</v>
       </c>
       <c r="E101">
-        <v>0.005084506942688655</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.004928003113645231</v>
+      </c>
+      <c r="F101">
+        <v>-0.01638235205994646</v>
+      </c>
+      <c r="G101">
+        <v>-0.06964054838037363</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01932399531988317</v>
+        <v>-0.1208784792691021</v>
       </c>
       <c r="C102">
-        <v>0.08502762501628047</v>
+        <v>0.08270768374316508</v>
       </c>
       <c r="D102">
-        <v>-0.1301675090965538</v>
+        <v>-0.00111114384945152</v>
       </c>
       <c r="E102">
-        <v>-0.003960046329531354</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03322238751940792</v>
+      </c>
+      <c r="F102">
+        <v>-0.04329811223183377</v>
+      </c>
+      <c r="G102">
+        <v>0.003820291130556862</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.002235395584056572</v>
+        <v>-0.003517759473035066</v>
       </c>
       <c r="C103">
-        <v>0.01211495090548824</v>
+        <v>0.003234676965791353</v>
       </c>
       <c r="D103">
-        <v>-0.02273051150479229</v>
+        <v>-0.0001933998781794209</v>
       </c>
       <c r="E103">
-        <v>0.01325708579306111</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001224691267540805</v>
+      </c>
+      <c r="F103">
+        <v>-0.005212571094711588</v>
+      </c>
+      <c r="G103">
+        <v>-0.01208041662228649</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9751469244058746</v>
+        <v>-0.0228548102814979</v>
       </c>
       <c r="C104">
-        <v>-0.1752100850480074</v>
+        <v>-0.03509029183132752</v>
       </c>
       <c r="D104">
-        <v>0.0091344322338215</v>
+        <v>-0.9873464314165201</v>
       </c>
       <c r="E104">
-        <v>0.0424865952483938</v>
+        <v>0.0477223928416599</v>
+      </c>
+      <c r="F104">
+        <v>-0.04149840829803879</v>
+      </c>
+      <c r="G104">
+        <v>0.0184974940193554</v>
       </c>
     </row>
   </sheetData>
